--- a/data/trans_media/IQ18D_M-Estudios-trans_media.xlsx
+++ b/data/trans_media/IQ18D_M-Estudios-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 23,38</t>
+          <t>16,56; 23,55</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 25,13</t>
+          <t>17,74; 25,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,98; 20,2</t>
+          <t>14,82; 20,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,04; 8,93</t>
+          <t>3,77; 8,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>19,4; 26,99</t>
+          <t>19,02; 26,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,97; 25,5</t>
+          <t>19,43; 25,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,96; 24,05</t>
+          <t>15,02; 24,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>7,26; 26,91</t>
+          <t>7,09; 26,6</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>18,71; 23,17</t>
+          <t>18,56; 23,41</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>19,04; 23,87</t>
+          <t>19,0; 24,24</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>15,61; 20,97</t>
+          <t>15,43; 20,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,22; 16,6</t>
+          <t>6,4; 17,72</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,31; 22,95</t>
+          <t>20,29; 22,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,72; 22,42</t>
+          <t>19,63; 22,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,07; 18,69</t>
+          <t>16,07; 18,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>12,29; 19,25</t>
+          <t>12,32; 19,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,85; 24,53</t>
+          <t>20,99; 24,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,86; 21,67</t>
+          <t>19,02; 21,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,92; 18,88</t>
+          <t>16,0; 18,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,27; 26,22</t>
+          <t>14,16; 25,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 23,19</t>
+          <t>21,03; 23,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,65; 21,58</t>
+          <t>19,67; 21,59</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 18,27</t>
+          <t>16,37; 18,35</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,78; 20,17</t>
+          <t>13,72; 19,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 23,87</t>
+          <t>18,91; 24,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 21,3</t>
+          <t>16,55; 21,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 21,74</t>
+          <t>14,44; 21,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 47,62</t>
+          <t>14,96; 45,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,09; 21,29</t>
+          <t>18,12; 21,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 21,6</t>
+          <t>16,61; 21,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 17,79</t>
+          <t>14,31; 17,85</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,35; 21,69</t>
+          <t>12,27; 21,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 22,02</t>
+          <t>19,06; 22,07</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 20,48</t>
+          <t>17,16; 20,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 18,89</t>
+          <t>14,87; 18,84</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 32,72</t>
+          <t>15,25; 33,4</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>20,19; 22,4</t>
+          <t>20,18; 22,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,31; 21,58</t>
+          <t>19,37; 21,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,01; 18,62</t>
+          <t>16,08; 18,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13,77; 23,08</t>
+          <t>13,71; 22,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>20,69; 23,11</t>
+          <t>20,6; 23,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>19,05; 21,23</t>
+          <t>18,83; 21,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 18,22</t>
+          <t>15,99; 18,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>14,18; 22,32</t>
+          <t>14,05; 22,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,61; 22,34</t>
+          <t>20,67; 22,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>19,47; 21,05</t>
+          <t>19,38; 21,0</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16,31; 18,11</t>
+          <t>16,34; 17,92</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,63; 20,91</t>
+          <t>14,4; 20,8</t>
         </is>
       </c>
     </row>
